--- a/trunk/SciFi/Teleport/Teleport LEDs.xlsx
+++ b/trunk/SciFi/Teleport/Teleport LEDs.xlsx
@@ -18182,7 +18182,7 @@
   <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="B6">
         <f>B2</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -18746,7 +18746,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -18802,7 +18802,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="B25">
         <f>(B3-B2)*B21</f>
-        <v>6336</v>
+        <v>5742</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -18860,7 +18860,7 @@
       </c>
       <c r="B26">
         <f>(B4-B3)*B22</f>
-        <v>2754</v>
+        <v>2430</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -18918,7 +18918,7 @@
       </c>
       <c r="B28">
         <f>(B5-B6)*B24</f>
-        <v>2750</v>
+        <v>4446</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -18947,7 +18947,7 @@
       </c>
       <c r="B29">
         <f>SUM(B25:B28)</f>
-        <v>20840</v>
+        <v>21618</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
